--- a/策划文档/数值用表/MAGIC_gem.xlsx
+++ b/策划文档/数值用表/MAGIC_gem.xlsx
@@ -19,6 +19,34 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、力量型
+2、智力型
+3、敏捷型
+4、精神型
+5、体质型</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0">
       <text>
         <r>
@@ -74,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1001=50}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,21 +195,6 @@
     <t>{0,0,0,0,4}</t>
   </si>
   <si>
-    <t>{8,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{0,8,0,0,0}</t>
-  </si>
-  <si>
-    <t>{0,0,8,0,0}</t>
-  </si>
-  <si>
-    <t>{0,0,0,8,0}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,8}</t>
-  </si>
-  <si>
     <t>{12,0,0,0,0}</t>
   </si>
   <si>
@@ -201,36 +210,6 @@
     <t>{0,0,0,0,12}</t>
   </si>
   <si>
-    <t>{16,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{0,16,0,0,0}</t>
-  </si>
-  <si>
-    <t>{0,0,16,0,0}</t>
-  </si>
-  <si>
-    <t>{0,0,0,16,0}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,16}</t>
-  </si>
-  <si>
-    <t>{24,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{0,24,0,0,0}</t>
-  </si>
-  <si>
-    <t>{0,0,24,0,0}</t>
-  </si>
-  <si>
-    <t>{0,0,0,24,0}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,24}</t>
-  </si>
-  <si>
     <t>{36,0,0,0,0}</t>
   </si>
   <si>
@@ -261,34 +240,43 @@
     <t>{0,0,0,0,54}</t>
   </si>
   <si>
-    <t>{70,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{0,70,0,0,0}</t>
-  </si>
-  <si>
-    <t>{0,0,70,0,0}</t>
-  </si>
-  <si>
-    <t>{0,0,0,70,0}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,70}</t>
-  </si>
-  <si>
-    <t>{90,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{0,90,0,0,0}</t>
-  </si>
-  <si>
-    <t>{0,0,90,0,0}</t>
-  </si>
-  <si>
-    <t>{0,0,0,90,0}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,90}</t>
+    <t>{81,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{0,81,0,0,0}</t>
+  </si>
+  <si>
+    <t>{0,0,81,0,0}</t>
+  </si>
+  <si>
+    <t>{0,0,0,81,0}</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,81}</t>
+  </si>
+  <si>
+    <t>{1002=500}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1002=1000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1002=2000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1002=10000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1002=5000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1002=20000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -665,53 +653,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -733,16 +722,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -759,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -776,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -793,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -810,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -827,10 +816,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -844,10 +833,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -861,10 +850,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -878,10 +867,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -895,10 +884,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -912,10 +901,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -929,10 +918,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -946,10 +935,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -963,10 +952,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -980,10 +969,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -997,10 +986,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -1014,10 +1003,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -1031,10 +1020,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1048,10 +1037,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1065,10 +1054,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1082,10 +1071,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1099,10 +1088,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1116,10 +1105,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1133,10 +1122,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1150,10 +1139,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1167,10 +1156,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1184,10 +1173,10 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -1201,10 +1190,10 @@
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -1218,10 +1207,10 @@
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -1235,10 +1224,10 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -1252,350 +1241,10 @@
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
-        <v>32</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
-        <v>40</v>
-      </c>
-      <c r="B44" s="1">
-        <v>5</v>
-      </c>
-      <c r="C44" s="1">
-        <v>8</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
-        <v>41</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1">
-        <v>9</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
-        <v>42</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1">
-        <v>9</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
-        <v>43</v>
-      </c>
-      <c r="B47" s="1">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1">
-        <v>9</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
-        <v>44</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>9</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
-        <v>45</v>
-      </c>
-      <c r="B49" s="1">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1">
-        <v>9</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
-        <v>46</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1">
-        <v>10</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
-        <v>47</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1">
-        <v>10</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
-        <v>48</v>
-      </c>
-      <c r="B52" s="1">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1">
-        <v>10</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
-        <v>49</v>
-      </c>
-      <c r="B53" s="1">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1">
-        <v>10</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
-        <v>50</v>
-      </c>
-      <c r="B54" s="1">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1">
-        <v>10</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
